--- a/static/data/arquivo-nao-contribuinte/Não Contribuintes.xlsx
+++ b/static/data/arquivo-nao-contribuinte/Não Contribuintes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,28 +558,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>105092</v>
+        <v>105303</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>100115670</t>
+          <t>100115934</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>BR1115783</t>
+          <t>BR0029472</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>TECON TECNOLOGIA EM CONSTRUCOES LTD</t>
+          <t>DATASOL ENGENHARIA LTDA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>41251176881093000172550020001050921001156705</t>
+          <t>41251176881093000172550020001053031001159344</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -605,17 +605,17 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>05502281001338</t>
+          <t>83358887000111</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>14902</t>
+          <t>01402</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>21.43</t>
+          <t>6209.28</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>21.43</t>
+          <t>6209.28</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -650,448 +650,12 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>105093</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>100115671</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>BR1900406</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>CONSTRUTORA JSOUTO LTDA</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Autorizada</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Venda com pedido</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>41251176881093000172550020001050931001156710</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>BR0101</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>05288135000118</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>06006</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>PJ</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>303.67</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>303.67</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>17/11/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>105094</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>100115672</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>BR1900406</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>CONSTRUTORA JSOUTO LTDA</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Autorizada</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Venda com pedido</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>41251176881093000172550020001050941001156726</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>BR0101</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>05288135000118</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>06006</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>PJ</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>4647.69</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>4647.69</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>17/11/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>105095</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>100115675</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>BR0028704</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>SOCIEDADE BENEFICENTE DONA ELMIRIA</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Autorizada</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Venda com pedido</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>41251176881093000172550020001050951001156758</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>BR0101</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>03030285000100</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>07901</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>PJ</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>47.27</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>47.27</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>17/11/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>105096</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>100115676</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>BR0029451</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>GEARELAB - REPRODUÇÃO ASSISTIDA LTD</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Autorizada</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Remessa</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>41251176881093000172550020001050961001156763</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>BR0101</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>33263095000276</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>07507</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>PB</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>PJ</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>26.03</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>26.03</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>17/11/2025</t>
+          <t>23/11/2025</t>
         </is>
       </c>
     </row>
